--- a/data/Database_IPGP.xlsx
+++ b/data/Database_IPGP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="232">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -460,6 +460,39 @@
     <t xml:space="preserve">NA63_24</t>
   </si>
   <si>
+    <t xml:space="preserve">NS0p06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS0p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS0p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS0p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS0p07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS0p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS2p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS3p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS3p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS6p1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Urbain et al. 1982</t>
   </si>
   <si>
@@ -497,6 +530,9 @@
   </si>
   <si>
     <t xml:space="preserve">Doweidar 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leko 1977</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -653,6 +689,9 @@
   </si>
   <si>
     <t xml:space="preserve">M-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sciglassweb.com/</t>
   </si>
   <si>
     <t xml:space="preserve">M-III-1</t>
@@ -1023,7 +1062,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1321,11 +1360,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="845133"/>
-        <c:axId val="82771059"/>
+        <c:axId val="72917343"/>
+        <c:axId val="83509244"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="845133"/>
+        <c:axId val="72917343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,12 +1396,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82771059"/>
+        <c:crossAx val="83509244"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82771059"/>
+        <c:axId val="83509244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845133"/>
+        <c:crossAx val="72917343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1495,12 +1534,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1349"/>
+  <dimension ref="A1:P1404"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="840" topLeftCell="A1331" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="840" topLeftCell="A1393" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="E1403" activeCellId="0" sqref="E1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -67025,6 +67064,2430 @@
       </c>
       <c r="O1349" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1350" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1350" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1350" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1350" s="0" t="n">
+        <v>1576.4927822444</v>
+      </c>
+      <c r="M1350" s="0" t="n">
+        <v>9.98960380348653</v>
+      </c>
+      <c r="N1350" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1351" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1351" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1351" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1351" s="0" t="n">
+        <v>1571.77008599738</v>
+      </c>
+      <c r="M1351" s="0" t="n">
+        <v>10.0039302694136</v>
+      </c>
+      <c r="N1351" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1352" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1352" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1352" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1352" s="0" t="n">
+        <v>1572.16013723743</v>
+      </c>
+      <c r="M1352" s="0" t="n">
+        <v>10.0690966719493</v>
+      </c>
+      <c r="N1352" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1353" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1353" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1353" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1353" s="0" t="n">
+        <v>1563.18732456724</v>
+      </c>
+      <c r="M1353" s="0" t="n">
+        <v>10.17793977813</v>
+      </c>
+      <c r="N1353" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1354" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1354" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1354" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1354" s="0" t="n">
+        <v>1559.79429563341</v>
+      </c>
+      <c r="M1354" s="0" t="n">
+        <v>10.2325198098257</v>
+      </c>
+      <c r="N1354" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1355" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1355" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1355" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1355" s="0" t="n">
+        <v>1551.40448636909</v>
+      </c>
+      <c r="M1355" s="0" t="n">
+        <v>10.3414263074485</v>
+      </c>
+      <c r="N1355" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1356" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1356" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1356" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1356" s="0" t="n">
+        <v>1526.43851357686</v>
+      </c>
+      <c r="M1356" s="0" t="n">
+        <v>10.7482091917591</v>
+      </c>
+      <c r="N1356" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1357" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1357" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1357" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1357" s="0" t="n">
+        <v>1525.21469349912</v>
+      </c>
+      <c r="M1357" s="0" t="n">
+        <v>10.8081141045959</v>
+      </c>
+      <c r="N1357" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1358" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1358" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1358" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1358" s="0" t="n">
+        <v>1501.25157706724</v>
+      </c>
+      <c r="M1358" s="0" t="n">
+        <v>11.2148969889065</v>
+      </c>
+      <c r="N1358" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1359" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1359" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1359" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1359" s="0" t="n">
+        <v>1491.67245689518</v>
+      </c>
+      <c r="M1359" s="0" t="n">
+        <v>11.4236450079239</v>
+      </c>
+      <c r="N1359" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1360" s="0" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="C1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1360" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1360" s="0" t="n">
+        <v>1460.1</v>
+      </c>
+      <c r="L1360" s="0" t="n">
+        <v>1480.04932106823</v>
+      </c>
+      <c r="M1360" s="0" t="n">
+        <v>11.5819334389857</v>
+      </c>
+      <c r="N1360" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1361" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1361" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1361" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1361" s="0" t="n">
+        <v>1551.59514206793</v>
+      </c>
+      <c r="M1361" s="0" t="n">
+        <v>9.99587955625991</v>
+      </c>
+      <c r="N1361" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1362" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1362" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1362" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1362" s="0" t="n">
+        <v>1541.234301631</v>
+      </c>
+      <c r="M1362" s="0" t="n">
+        <v>10.1745800316957</v>
+      </c>
+      <c r="N1362" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1363" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1363" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1363" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1363" s="0" t="n">
+        <v>1533.84540183736</v>
+      </c>
+      <c r="M1363" s="0" t="n">
+        <v>10.3637400950872</v>
+      </c>
+      <c r="N1363" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1364" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1364" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1364" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1364" s="0" t="n">
+        <v>1529.03467266131</v>
+      </c>
+      <c r="M1364" s="0" t="n">
+        <v>10.3629793977813</v>
+      </c>
+      <c r="N1364" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1365" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1365" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1365" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1365" s="0" t="n">
+        <v>1519.85289849498</v>
+      </c>
+      <c r="M1365" s="0" t="n">
+        <v>10.4817115689382</v>
+      </c>
+      <c r="N1365" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1366" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1366" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1366" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1366" s="0" t="n">
+        <v>1521.3948267257</v>
+      </c>
+      <c r="M1366" s="0" t="n">
+        <v>10.5470681458003</v>
+      </c>
+      <c r="N1366" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1367" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1367" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1367" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1367" s="0" t="n">
+        <v>1513.93585836576</v>
+      </c>
+      <c r="M1367" s="0" t="n">
+        <v>10.5608874801902</v>
+      </c>
+      <c r="N1367" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1368" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1368" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1368" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1368" s="0" t="n">
+        <v>1512.28765771621</v>
+      </c>
+      <c r="M1368" s="0" t="n">
+        <v>10.735911251981</v>
+      </c>
+      <c r="N1368" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1369" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1369" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1369" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1369" s="0" t="n">
+        <v>1503.38916955946</v>
+      </c>
+      <c r="M1369" s="0" t="n">
+        <v>10.7745166402536</v>
+      </c>
+      <c r="N1369" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1370" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1370" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1370" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1370" s="0" t="n">
+        <v>1498.33091054838</v>
+      </c>
+      <c r="M1370" s="0" t="n">
+        <v>10.9639936608558</v>
+      </c>
+      <c r="N1370" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1371" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1371" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1371" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1371" s="0" t="n">
+        <v>1452.92739675479</v>
+      </c>
+      <c r="M1371" s="0" t="n">
+        <v>11.7474484944533</v>
+      </c>
+      <c r="N1371" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1372" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="C1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1372" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1372" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="L1372" s="0" t="n">
+        <v>1447.9812052663</v>
+      </c>
+      <c r="M1372" s="0" t="n">
+        <v>11.8166719492868</v>
+      </c>
+      <c r="N1372" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1373" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1373" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1373" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1373" s="0" t="n">
+        <v>1539.27494421166</v>
+      </c>
+      <c r="M1373" s="0" t="n">
+        <v>10.0390491283677</v>
+      </c>
+      <c r="N1373" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1374" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1374" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1374" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1374" s="0" t="n">
+        <v>1536.39141507847</v>
+      </c>
+      <c r="M1374" s="0" t="n">
+        <v>10.1287480190174</v>
+      </c>
+      <c r="N1374" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1375" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1375" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1375" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1375" s="0" t="n">
+        <v>1528.30836951822</v>
+      </c>
+      <c r="M1375" s="0" t="n">
+        <v>10.2276386687797</v>
+      </c>
+      <c r="N1375" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1376" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1376" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1376" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1376" s="0" t="n">
+        <v>1518.76518806908</v>
+      </c>
+      <c r="M1376" s="0" t="n">
+        <v>10.3062440570523</v>
+      </c>
+      <c r="N1376" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1377" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1377" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1377" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1377" s="0" t="n">
+        <v>1512.43825751088</v>
+      </c>
+      <c r="M1377" s="0" t="n">
+        <v>10.4454516640254</v>
+      </c>
+      <c r="N1377" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1378" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1378" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1378" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1378" s="0" t="n">
+        <v>1519.13192225295</v>
+      </c>
+      <c r="M1378" s="0" t="n">
+        <v>10.3563866877971</v>
+      </c>
+      <c r="N1378" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1379" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1379" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1379" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1379" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1379" s="0" t="n">
+        <v>1485.54311477922</v>
+      </c>
+      <c r="M1379" s="0" t="n">
+        <v>10.9618383518225</v>
+      </c>
+      <c r="N1379" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1380" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1380" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1380" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1380" s="0" t="n">
+        <v>1478.05151483824</v>
+      </c>
+      <c r="M1380" s="0" t="n">
+        <v>11.1508716323296</v>
+      </c>
+      <c r="N1380" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1381" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1381" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1381" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1381" s="0" t="n">
+        <v>1469.57328717456</v>
+      </c>
+      <c r="M1381" s="0" t="n">
+        <v>11.3196830427892</v>
+      </c>
+      <c r="N1381" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1382" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1382" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1382" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1382" s="0" t="n">
+        <v>1464.49645408641</v>
+      </c>
+      <c r="M1382" s="0" t="n">
+        <v>11.3688748019017</v>
+      </c>
+      <c r="N1382" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1383" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1383" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1383" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1383" s="0" t="n">
+        <v>1461.60207837716</v>
+      </c>
+      <c r="M1383" s="0" t="n">
+        <v>11.4234548335975</v>
+      </c>
+      <c r="N1383" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1384" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1384" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1384" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1384" s="0" t="n">
+        <v>1458.67895246361</v>
+      </c>
+      <c r="M1384" s="0" t="n">
+        <v>11.568177496038</v>
+      </c>
+      <c r="N1384" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1385" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1385" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1385" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1385" s="0" t="n">
+        <v>1444.88370555447</v>
+      </c>
+      <c r="M1385" s="0" t="n">
+        <v>11.7309667194929</v>
+      </c>
+      <c r="N1385" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1386" s="0" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="C1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1386" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1386" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="L1386" s="0" t="n">
+        <v>1488.54791737408</v>
+      </c>
+      <c r="M1386" s="0" t="n">
+        <v>10.9222820919176</v>
+      </c>
+      <c r="N1386" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1387" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1387" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1387" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1387" s="0" t="n">
+        <v>1510.55450339089</v>
+      </c>
+      <c r="M1387" s="0" t="n">
+        <v>9.58370839936609</v>
+      </c>
+      <c r="N1387" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1388" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1388" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1388" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1388" s="0" t="n">
+        <v>1507.82334915925</v>
+      </c>
+      <c r="M1388" s="0" t="n">
+        <v>9.62833597464342</v>
+      </c>
+      <c r="N1388" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1389" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1389" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1389" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1389" s="0" t="n">
+        <v>1503.93193447098</v>
+      </c>
+      <c r="M1389" s="0" t="n">
+        <v>9.71283676703645</v>
+      </c>
+      <c r="N1389" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1390" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1390" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1390" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1390" s="0" t="n">
+        <v>1499.31330186508</v>
+      </c>
+      <c r="M1390" s="0" t="n">
+        <v>9.77717908082409</v>
+      </c>
+      <c r="N1390" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1391" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1391" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1391" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1391" s="0" t="n">
+        <v>1496.9954314516</v>
+      </c>
+      <c r="M1391" s="0" t="n">
+        <v>9.8519175911252</v>
+      </c>
+      <c r="N1391" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1392" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1392" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1392" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1392" s="0" t="n">
+        <v>1491.29535958827</v>
+      </c>
+      <c r="M1392" s="0" t="n">
+        <v>9.92608557844691</v>
+      </c>
+      <c r="N1392" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1393" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1393" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1393" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1393" s="0" t="n">
+        <v>1484.51255646685</v>
+      </c>
+      <c r="M1393" s="0" t="n">
+        <v>10.0401267828843</v>
+      </c>
+      <c r="N1393" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1394" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1394" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1394" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1394" s="0" t="n">
+        <v>1473.73497920502</v>
+      </c>
+      <c r="M1394" s="0" t="n">
+        <v>10.2386053882726</v>
+      </c>
+      <c r="N1394" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1395" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1395" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1395" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1395" s="0" t="n">
+        <v>1459.54164667159</v>
+      </c>
+      <c r="M1395" s="0" t="n">
+        <v>10.5015530903328</v>
+      </c>
+      <c r="N1395" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1396" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1396" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1396" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1396" s="0" t="n">
+        <v>1450.22533523248</v>
+      </c>
+      <c r="M1396" s="0" t="n">
+        <v>10.7603169572108</v>
+      </c>
+      <c r="N1396" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1397" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1397" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1397" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1397" s="0" t="n">
+        <v>1430.75454576146</v>
+      </c>
+      <c r="M1397" s="0" t="n">
+        <v>11.0822820919176</v>
+      </c>
+      <c r="N1397" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1398" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1398" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1398" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L1398" s="0" t="n">
+        <v>1410.87621445594</v>
+      </c>
+      <c r="M1398" s="0" t="n">
+        <v>11.5342630744849</v>
+      </c>
+      <c r="N1398" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1399" s="0" t="n">
+        <v>99.93</v>
+      </c>
+      <c r="C1399" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1399" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="N1399" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1400" s="0" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="C1400" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1400" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N1400" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1401" s="0" t="n">
+        <f aca="false">100-C1401</f>
+        <v>97.7</v>
+      </c>
+      <c r="C1401" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1401" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1401" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1402" s="0" t="n">
+        <f aca="false">100-C1402</f>
+        <v>96.8</v>
+      </c>
+      <c r="C1402" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1402" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="N1402" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1403" s="0" t="n">
+        <f aca="false">100-C1403</f>
+        <v>96.5</v>
+      </c>
+      <c r="C1403" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1403" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1403" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N1403" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1404" s="0" t="n">
+        <f aca="false">100-C1404</f>
+        <v>93.9</v>
+      </c>
+      <c r="C1404" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M1404" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N1404" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -67043,10 +69506,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -67059,7 +69522,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67067,7 +69530,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67075,7 +69538,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67083,7 +69546,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67091,7 +69554,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67099,7 +69562,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67107,31 +69570,39 @@
         <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -67166,13 +69637,13 @@
         <v>11</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AA34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67592,7 +70063,7 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.75</v>
@@ -67675,7 +70146,7 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.75</v>
@@ -67758,7 +70229,7 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.75</v>
@@ -67841,7 +70312,7 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.75</v>
@@ -67924,7 +70395,7 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.75</v>
@@ -68214,10 +70685,10 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="510" topLeftCell="D143" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="510" topLeftCell="D157" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -68243,16 +70714,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68281,7 +70752,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>83</v>
@@ -68305,12 +70776,12 @@
         <v>0.007</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>83</v>
@@ -68334,12 +70805,12 @@
         <v>0.006</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>83</v>
@@ -68363,12 +70834,12 @@
         <v>0.004</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>83</v>
@@ -68392,12 +70863,12 @@
         <v>0.007</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B7" s="13" t="n">
         <v>83</v>
@@ -68421,12 +70892,12 @@
         <v>0.005</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B8" s="16" t="n">
         <v>80</v>
@@ -68453,7 +70924,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>75</v>
@@ -68482,7 +70953,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B10" s="16" t="n">
         <v>75</v>
@@ -68511,7 +70982,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B11" s="16" t="n">
         <v>75</v>
@@ -68540,7 +71011,7 @@
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B12" s="20" t="n">
         <v>75</v>
@@ -68569,7 +71040,7 @@
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B13" s="20" t="n">
         <v>75</v>
@@ -68598,7 +71069,7 @@
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>75</v>
@@ -68622,12 +71093,12 @@
         <v>0.001</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>75</v>
@@ -68651,12 +71122,12 @@
         <v>0.003</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>75</v>
@@ -68680,12 +71151,12 @@
         <v>0.003</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>75</v>
@@ -68709,12 +71180,12 @@
         <v>0.003</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B18" s="21" t="n">
         <v>75</v>
@@ -68738,12 +71209,12 @@
         <v>0.001</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>75</v>
@@ -68767,12 +71238,12 @@
         <v>0.004</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>75</v>
@@ -68796,12 +71267,12 @@
         <v>0.008</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B21" s="24" t="n">
         <v>75</v>
@@ -68830,7 +71301,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B22" s="24" t="n">
         <v>72</v>
@@ -68859,7 +71330,7 @@
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B23" s="21" t="n">
         <f aca="false">100-(C23+E23)</f>
@@ -68891,7 +71362,7 @@
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>66.6666</v>
@@ -68920,7 +71391,7 @@
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>66.666</v>
@@ -68947,7 +71418,7 @@
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>65</v>
@@ -68977,7 +71448,7 @@
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>65</v>
@@ -69006,7 +71477,7 @@
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>60</v>
@@ -69033,7 +71504,7 @@
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>58</v>
@@ -69062,7 +71533,7 @@
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>58</v>
@@ -69091,7 +71562,7 @@
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>58</v>
@@ -69120,7 +71591,7 @@
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>58</v>
@@ -69150,7 +71621,7 @@
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>58</v>
@@ -69179,7 +71650,7 @@
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>58</v>
@@ -69209,7 +71680,7 @@
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>50</v>
@@ -69238,7 +71709,7 @@
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>50</v>
@@ -69267,7 +71738,7 @@
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>50</v>
@@ -69296,7 +71767,7 @@
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B38" s="21" t="n">
         <v>50</v>
@@ -69325,7 +71796,7 @@
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>50</v>
@@ -69354,7 +71825,7 @@
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B40" s="28" t="n">
         <v>84.4212977181034</v>
@@ -69378,12 +71849,12 @@
         <v>0.006</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>52.5</v>
@@ -69405,12 +71876,12 @@
         <v>2.553</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>55</v>
@@ -69432,12 +71903,12 @@
         <v>2.545</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>60</v>
@@ -69459,12 +71930,12 @@
         <v>2.519</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>66</v>
@@ -69486,12 +71957,12 @@
         <v>2.483</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>70</v>
@@ -69513,12 +71984,12 @@
         <v>2.465</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>75</v>
@@ -69540,12 +72011,12 @@
         <v>2.43</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>80</v>
@@ -69567,12 +72038,12 @@
         <v>2.38</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>85</v>
@@ -69594,12 +72065,12 @@
         <v>2.332</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>90</v>
@@ -69621,12 +72092,12 @@
         <v>2.285</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>57.5</v>
@@ -69648,12 +72119,12 @@
         <v>2.5</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>60</v>
@@ -69675,12 +72146,12 @@
         <v>2.496</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>62.5</v>
@@ -69702,12 +72173,12 @@
         <v>2.492</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>65</v>
@@ -69729,12 +72200,12 @@
         <v>2.482</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>67.5</v>
@@ -69756,12 +72227,12 @@
         <v>2.471</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>70</v>
@@ -69783,12 +72254,12 @@
         <v>2.456</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>72.5</v>
@@ -69810,12 +72281,12 @@
         <v>2.435</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>75</v>
@@ -69837,12 +72308,12 @@
         <v>2.426</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>77.5</v>
@@ -69864,12 +72335,12 @@
         <v>2.395</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>80</v>
@@ -69891,12 +72362,12 @@
         <v>2.374</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>82.5</v>
@@ -69918,12 +72389,12 @@
         <v>2.352</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>85</v>
@@ -69945,12 +72416,12 @@
         <v>2.332</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>87.5</v>
@@ -69972,12 +72443,12 @@
         <v>2.311</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>90</v>
@@ -69999,12 +72470,12 @@
         <v>2.287</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B64" s="30" t="n">
         <v>51.66</v>
@@ -70026,14 +72497,14 @@
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B65" s="30" t="n">
         <v>52.77</v>
@@ -70055,14 +72526,14 @@
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B66" s="30" t="n">
         <v>53.01</v>
@@ -70084,14 +72555,14 @@
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B67" s="30" t="n">
         <v>53.64</v>
@@ -70113,14 +72584,14 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B68" s="30" t="n">
         <v>52.72</v>
@@ -70142,14 +72613,14 @@
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B69" s="30" t="n">
         <v>58.22</v>
@@ -70171,14 +72642,14 @@
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B70" s="30" t="n">
         <v>57.87</v>
@@ -70200,14 +72671,14 @@
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B71" s="30" t="n">
         <v>58.61</v>
@@ -70229,14 +72700,14 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B72" s="30" t="n">
         <v>57.72</v>
@@ -70258,14 +72729,14 @@
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B73" s="30" t="n">
         <v>57.74</v>
@@ -70287,14 +72758,14 @@
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B74" s="30" t="n">
         <v>63.6</v>
@@ -70316,14 +72787,14 @@
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B75" s="30" t="n">
         <v>62.59</v>
@@ -70345,14 +72816,14 @@
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B76" s="30" t="n">
         <v>67.63</v>
@@ -70374,14 +72845,14 @@
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B77" s="30" t="n">
         <v>69.07</v>
@@ -70403,14 +72874,14 @@
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B78" s="30" t="n">
         <v>67.33</v>
@@ -70432,14 +72903,14 @@
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B79" s="30" t="n">
         <v>67.23</v>
@@ -70461,14 +72932,14 @@
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B80" s="30" t="n">
         <v>67.57</v>
@@ -70490,14 +72961,14 @@
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B81" s="30" t="n">
         <v>69.14</v>
@@ -70519,14 +72990,14 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B82" s="30" t="n">
         <v>69.21</v>
@@ -70548,14 +73019,14 @@
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B83" s="30" t="n">
         <v>70.6</v>
@@ -70577,14 +73048,14 @@
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B84" s="30" t="n">
         <v>71.01</v>
@@ -70606,14 +73077,14 @@
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B85" s="30" t="n">
         <v>70.9</v>
@@ -70635,14 +73106,14 @@
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B86" s="30" t="n">
         <v>71.31</v>
@@ -70664,14 +73135,14 @@
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B87" s="30" t="n">
         <v>72.29</v>
@@ -70693,14 +73164,14 @@
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B88" s="30" t="n">
         <v>62.17</v>
@@ -70722,14 +73193,14 @@
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B89" s="30" t="n">
         <v>61.77</v>
@@ -70751,14 +73222,14 @@
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B90" s="30" t="n">
         <v>63.98</v>
@@ -70780,14 +73251,14 @@
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B91" s="30" t="n">
         <v>63.3</v>
@@ -70809,14 +73280,14 @@
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B92" s="30" t="n">
         <v>65.74</v>
@@ -70838,14 +73309,14 @@
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B93" s="30" t="n">
         <v>68.42</v>
@@ -70867,14 +73338,14 @@
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B94" s="30" t="n">
         <v>77.3</v>
@@ -70896,14 +73367,14 @@
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B95" s="30" t="n">
         <v>77.48</v>
@@ -70925,14 +73396,14 @@
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B96" s="30" t="n">
         <v>77.02</v>
@@ -70954,14 +73425,14 @@
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B97" s="30" t="n">
         <v>78.52</v>
@@ -70983,14 +73454,14 @@
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B98" s="30" t="n">
         <v>72.64</v>
@@ -71012,14 +73483,14 @@
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B99" s="30" t="n">
         <v>72.27</v>
@@ -71041,14 +73512,14 @@
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B100" s="30" t="n">
         <v>73.34</v>
@@ -71070,14 +73541,14 @@
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B101" s="30" t="n">
         <v>74.37</v>
@@ -71099,14 +73570,14 @@
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B102" s="30" t="n">
         <v>74.03</v>
@@ -71128,14 +73599,14 @@
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B103" s="30" t="n">
         <v>75.77</v>
@@ -71157,14 +73628,14 @@
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B104" s="30" t="n">
         <v>75.61</v>
@@ -71186,14 +73657,14 @@
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B105" s="30" t="n">
         <v>76.34</v>
@@ -71215,14 +73686,14 @@
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B106" s="30" t="n">
         <v>75.84</v>
@@ -71244,14 +73715,14 @@
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B107" s="30" t="n">
         <v>76.14</v>
@@ -71273,14 +73744,14 @@
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B108" s="30" t="n">
         <v>75.9</v>
@@ -71302,14 +73773,14 @@
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B109" s="30" t="n">
         <v>75.31</v>
@@ -71331,14 +73802,14 @@
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B110" s="30" t="n">
         <v>74.99</v>
@@ -71355,19 +73826,19 @@
       <c r="F110" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G110" s="30" t="n">
-        <v>2.418</v>
+      <c r="G110" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B111" s="30" t="n">
         <v>75.44</v>
@@ -71389,14 +73860,14 @@
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B112" s="30" t="n">
         <v>76.25</v>
@@ -71418,14 +73889,14 @@
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B113" s="30" t="n">
         <v>75</v>
@@ -71447,14 +73918,14 @@
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B114" s="30" t="n">
         <v>70</v>
@@ -71475,12 +73946,12 @@
         <v>2.453</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B115" s="30" t="n">
         <v>65</v>
@@ -71501,12 +73972,12 @@
         <v>2.476</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B116" s="30" t="n">
         <v>55</v>
@@ -71527,12 +73998,12 @@
         <v>2.493</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B117" s="30" t="n">
         <v>50</v>
@@ -71553,12 +74024,12 @@
         <v>2.495</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B118" s="30" t="n">
         <v>75</v>
@@ -71580,12 +74051,12 @@
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B119" s="30" t="n">
         <v>75</v>
@@ -71607,12 +74078,12 @@
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B120" s="30" t="n">
         <v>75</v>
@@ -71634,12 +74105,12 @@
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B121" s="30" t="n">
         <v>75</v>
@@ -71661,12 +74132,12 @@
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B122" s="30" t="n">
         <v>50</v>
@@ -71688,12 +74159,12 @@
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B123" s="30" t="n">
         <v>63.64</v>
@@ -71715,12 +74186,12 @@
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B124" s="30" t="n">
         <v>66.66</v>
@@ -71742,12 +74213,12 @@
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B125" s="30" t="n">
         <v>75</v>
@@ -71769,12 +74240,12 @@
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B126" s="30" t="n">
         <v>78.94</v>
@@ -71796,12 +74267,12 @@
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B127" s="30" t="n">
         <v>81.82</v>
@@ -71823,12 +74294,12 @@
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B128" s="30" t="n">
         <v>84.62</v>
@@ -71850,12 +74321,12 @@
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B129" s="30" t="n">
         <v>75</v>
@@ -71877,12 +74348,12 @@
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B130" s="30" t="n">
         <v>70</v>
@@ -71904,12 +74375,12 @@
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B131" s="30" t="n">
         <v>65</v>
@@ -71931,12 +74402,12 @@
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B132" s="30" t="n">
         <v>67</v>
@@ -71958,12 +74429,12 @@
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B133" s="30" t="n">
         <v>62</v>
@@ -71985,12 +74456,12 @@
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="30" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B134" s="30" t="n">
         <v>57</v>
@@ -72012,12 +74483,12 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="30" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B135" s="30" t="n">
         <v>52</v>
@@ -72039,12 +74510,12 @@
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="30" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B136" s="30" t="n">
         <v>60</v>
@@ -72066,12 +74537,12 @@
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="30" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B137" s="30" t="n">
         <v>55</v>
@@ -72093,12 +74564,12 @@
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="30" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B138" s="30" t="n">
         <v>50</v>
@@ -72120,12 +74591,12 @@
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="30" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B139" s="30" t="n">
         <v>45</v>
@@ -72147,12 +74618,12 @@
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="30" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B140" s="30" t="n">
         <v>40</v>
@@ -72174,12 +74645,12 @@
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="30" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B141" s="30" t="n">
         <v>78.3</v>
@@ -72201,12 +74672,12 @@
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="30" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B142" s="30" t="n">
         <v>66.7</v>
@@ -72228,12 +74699,12 @@
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="30" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B143" s="30" t="n">
         <v>60</v>
@@ -72255,12 +74726,12 @@
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>75</v>
@@ -72282,12 +74753,12 @@
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>70</v>
@@ -72309,12 +74780,12 @@
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>65</v>
@@ -72335,12 +74806,12 @@
         <v>2.4537</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>60</v>
@@ -72361,12 +74832,12 @@
         <v>2.4632</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>67</v>
@@ -72387,12 +74858,12 @@
         <v>2.4644</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>62</v>
@@ -72413,12 +74884,12 @@
         <v>2.474</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>57</v>
@@ -72439,12 +74910,12 @@
         <v>2.4898</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>52</v>
@@ -72465,12 +74936,12 @@
         <v>2.5049</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>50</v>
@@ -72491,12 +74962,12 @@
         <v>2.5176</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>75</v>
@@ -72517,12 +74988,12 @@
         <v>2.4119</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>75</v>
@@ -72543,12 +75014,12 @@
         <v>2.4084</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>75</v>
@@ -72569,12 +75040,12 @@
         <v>2.4289</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>75</v>
@@ -72595,12 +75066,12 @@
         <v>2.4344</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>75</v>
@@ -72621,12 +75092,12 @@
         <v>2.4284</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>75</v>
@@ -72647,12 +75118,12 @@
         <v>2.4303</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>75</v>
@@ -72673,12 +75144,12 @@
         <v>2.4335</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>75</v>
@@ -72699,12 +75170,12 @@
         <v>2.4312</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>75</v>
@@ -72725,7 +75196,7 @@
         <v>2.4273</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -72751,12 +75222,12 @@
         <v>2.2035</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>94</v>
@@ -72777,12 +75248,12 @@
         <v>2.2472</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>92</v>
@@ -72803,12 +75274,12 @@
         <v>2.2713</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>90</v>
@@ -72829,12 +75300,12 @@
         <v>2.3005</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>85</v>
@@ -72855,12 +75326,12 @@
         <v>2.3371</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>80</v>
@@ -72881,12 +75352,12 @@
         <v>2.3814</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>75</v>
@@ -72907,12 +75378,12 @@
         <v>2.4119</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>67</v>
@@ -72933,12 +75404,12 @@
         <v>2.4644</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>62</v>
@@ -72959,12 +75430,12 @@
         <v>2.4805</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>60</v>
@@ -72985,12 +75456,12 @@
         <v>2.4912</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>90</v>
@@ -73011,12 +75482,12 @@
         <v>2.2867</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>85</v>
@@ -73038,12 +75509,12 @@
         <v>2.3309</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>80</v>
@@ -73065,12 +75536,12 @@
         <v>2.3776</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>77</v>
@@ -73092,12 +75563,12 @@
         <v>2.4121</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>75</v>
@@ -73119,12 +75590,12 @@
         <v>2.4273</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>73</v>
@@ -73146,12 +75617,12 @@
         <v>2.4423</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>67</v>
@@ -73173,12 +75644,12 @@
         <v>2.4825</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>60</v>
@@ -73200,12 +75671,12 @@
         <v>2.5213</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>58</v>
@@ -73227,12 +75698,12 @@
         <v>2.6354</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>56</v>
@@ -73254,12 +75725,12 @@
         <v>2.544</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>54</v>
@@ -73281,7 +75752,7 @@
         <v>2.5517</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/Database_IPGP.xlsx
+++ b/data/Database_IPGP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VISCO" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="444">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -837,9 +837,6 @@
     <t xml:space="preserve">MM1932</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
     <t xml:space="preserve">FP1938</t>
   </si>
   <si>
@@ -1532,7 +1529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1621,16 +1618,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1749,7 +1742,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2019,11 +2012,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14695490"/>
-        <c:axId val="23347743"/>
+        <c:axId val="82597131"/>
+        <c:axId val="59730243"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14695490"/>
+        <c:axId val="82597131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,12 +2048,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23347743"/>
+        <c:crossAx val="59730243"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23347743"/>
+        <c:axId val="59730243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14695490"/>
+        <c:crossAx val="82597131"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2153,7 +2146,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2266,11 +2259,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35273775"/>
-        <c:axId val="92784825"/>
+        <c:axId val="92538547"/>
+        <c:axId val="29422682"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35273775"/>
+        <c:axId val="92538547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,12 +2291,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92784825"/>
+        <c:crossAx val="29422682"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92784825"/>
+        <c:axId val="29422682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35273775"/>
+        <c:crossAx val="92538547"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2388,7 +2381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2957,11 +2950,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70072064"/>
-        <c:axId val="46131792"/>
+        <c:axId val="29260820"/>
+        <c:axId val="34125466"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70072064"/>
+        <c:axId val="29260820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,12 +2982,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46131792"/>
+        <c:crossAx val="34125466"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46131792"/>
+        <c:axId val="34125466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3024,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70072064"/>
+        <c:crossAx val="29260820"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3090,9 +3083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3101,7 +3094,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2639880" y="6742080"/>
-        <a:ext cx="4576680" cy="3353400"/>
+        <a:ext cx="4576320" cy="3353040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3120,9 +3113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3131,7 +3124,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6357240" y="4240800"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3150,9 +3143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3161,7 +3154,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8961840" y="16893000"/>
-        <a:ext cx="5762880" cy="3249000"/>
+        <a:ext cx="5762520" cy="3248640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3181,7 +3174,7 @@
   </sheetPr>
   <dimension ref="A1:AB1961"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1005" topLeftCell="L1951" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="F1951" activeCellId="0" sqref="F1951"/>
@@ -67604,10 +67597,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ341"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="795" topLeftCell="A1" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A341" activeCellId="0" sqref="A341"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="795" topLeftCell="A286" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L298" activeCellId="0" sqref="L298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -68994,7 +68987,7 @@
       <c r="G53" s="23" t="n">
         <v>1.52034</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69020,7 +69013,7 @@
       <c r="G54" s="23" t="n">
         <v>1.51496</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69046,7 +69039,7 @@
       <c r="G55" s="23" t="n">
         <v>1.51361</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69072,7 +69065,7 @@
       <c r="G56" s="23" t="n">
         <v>1.5097</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69098,7 +69091,7 @@
       <c r="G57" s="23" t="n">
         <v>1.50865</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69124,7 +69117,7 @@
       <c r="G58" s="23" t="n">
         <v>1.50023</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69150,7 +69143,7 @@
       <c r="G59" s="23" t="n">
         <v>1.49615</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69176,7 +69169,7 @@
       <c r="G60" s="23" t="n">
         <v>1.49425</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69202,7 +69195,7 @@
       <c r="G61" s="23" t="n">
         <v>1.49121</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69228,7 +69221,7 @@
       <c r="G62" s="23" t="n">
         <v>1.48892</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69254,7 +69247,7 @@
       <c r="G63" s="23" t="n">
         <v>1.48738</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69280,7 +69273,7 @@
       <c r="G64" s="23" t="n">
         <v>1.48462</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="H64" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69306,7 +69299,7 @@
       <c r="G65" s="23" t="n">
         <v>1.48</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69332,7 +69325,7 @@
       <c r="G66" s="23" t="n">
         <v>1.47469</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69358,7 +69351,7 @@
       <c r="G67" s="23" t="n">
         <v>1.46978</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69384,7 +69377,7 @@
       <c r="G68" s="23" t="n">
         <v>1.46685</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69410,7 +69403,7 @@
       <c r="G69" s="23" t="n">
         <v>1.46028</v>
       </c>
-      <c r="H69" s="24" t="s">
+      <c r="H69" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69436,7 +69429,7 @@
       <c r="G70" s="23" t="n">
         <v>1.45899</v>
       </c>
-      <c r="H70" s="24" t="s">
+      <c r="H70" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69462,7 +69455,7 @@
       <c r="G71" s="23" t="n">
         <v>1.45039</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69488,7 +69481,7 @@
       <c r="G72" s="23" t="n">
         <v>1.44903</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69514,7 +69507,7 @@
       <c r="G73" s="23" t="n">
         <v>1.44772</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="H73" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69540,7 +69533,7 @@
       <c r="G74" s="23" t="n">
         <v>1.44635</v>
       </c>
-      <c r="H74" s="24" t="s">
+      <c r="H74" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69566,7 +69559,7 @@
       <c r="G75" s="23" t="n">
         <v>1.44524</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69592,7 +69585,7 @@
       <c r="G76" s="23" t="n">
         <v>1.44444</v>
       </c>
-      <c r="H76" s="24" t="s">
+      <c r="H76" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69618,7 +69611,7 @@
       <c r="G77" s="23" t="n">
         <v>1.44307</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="H77" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -69644,7 +69637,7 @@
       <c r="G78" s="23" t="n">
         <v>1.45607</v>
       </c>
-      <c r="H78" s="24" t="s">
+      <c r="H78" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69670,7 +69663,7 @@
       <c r="G79" s="23" t="n">
         <v>1.4567</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H79" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69696,7 +69689,7 @@
       <c r="G80" s="23" t="n">
         <v>1.45846</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H80" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69722,7 +69715,7 @@
       <c r="G81" s="23" t="n">
         <v>1.46186</v>
       </c>
-      <c r="H81" s="24" t="s">
+      <c r="H81" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69748,7 +69741,7 @@
       <c r="G82" s="23" t="n">
         <v>1.46224</v>
       </c>
-      <c r="H82" s="24" t="s">
+      <c r="H82" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69774,7 +69767,7 @@
       <c r="G83" s="23" t="n">
         <v>1.4635</v>
       </c>
-      <c r="H83" s="24" t="s">
+      <c r="H83" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69800,7 +69793,7 @@
       <c r="G84" s="23" t="n">
         <v>1.46406</v>
       </c>
-      <c r="H84" s="24" t="s">
+      <c r="H84" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69826,7 +69819,7 @@
       <c r="G85" s="23" t="n">
         <v>1.46429</v>
       </c>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69852,7 +69845,7 @@
       <c r="G86" s="23" t="n">
         <v>1.46669</v>
       </c>
-      <c r="H86" s="24" t="s">
+      <c r="H86" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -69878,7 +69871,7 @@
       <c r="G87" s="23" t="n">
         <v>1.46962</v>
       </c>
-      <c r="H87" s="24" t="s">
+      <c r="H87" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -72105,8 +72098,7 @@
       <c r="A173" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B173" s="14" t="n">
-        <f aca="false">100-C173-D173</f>
+      <c r="B173" s="5" t="n">
         <v>51.6663752450009</v>
       </c>
       <c r="C173" s="14" t="n">
@@ -72132,15 +72124,14 @@
       <c r="A174" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B174" s="14" t="n">
-        <f aca="false">100-C174-D174</f>
-        <v>5.72754916976213</v>
+      <c r="B174" s="5" t="n">
+        <v>52.7716789242694</v>
       </c>
       <c r="C174" s="14" t="n">
-        <v>3.37513100522291</v>
+        <v>4.30455048955563</v>
       </c>
       <c r="D174" s="14" t="n">
-        <v>90.897319825015</v>
+        <v>42.923770586175</v>
       </c>
       <c r="E174" s="14" t="n">
         <v>0</v>
@@ -72159,8 +72150,7 @@
       <c r="A175" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B175" s="14" t="n">
-        <f aca="false">100-C175-D175</f>
+      <c r="B175" s="5" t="n">
         <v>53.0084182186197</v>
       </c>
       <c r="C175" s="14" t="n">
@@ -72186,15 +72176,14 @@
       <c r="A176" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B176" s="14" t="n">
-        <f aca="false">100-C176-D176</f>
-        <v>51.5691526788673</v>
+      <c r="B176" s="5" t="n">
+        <v>53.6470788089306</v>
       </c>
       <c r="C176" s="14" t="n">
-        <v>6.21144054332535</v>
+        <v>5.94493860655915</v>
       </c>
       <c r="D176" s="14" t="n">
-        <v>42.2194067778073</v>
+        <v>40.4079825845103</v>
       </c>
       <c r="E176" s="14" t="n">
         <v>0</v>
@@ -72213,15 +72202,14 @@
       <c r="A177" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B177" s="14" t="n">
-        <f aca="false">100-C177-D177</f>
-        <v>0</v>
+      <c r="B177" s="5" t="n">
+        <v>52.7184664529172</v>
       </c>
       <c r="C177" s="14" t="n">
-        <v>6.29315830022271</v>
+        <v>2.97550175289083</v>
       </c>
       <c r="D177" s="14" t="n">
-        <v>93.7068416997773</v>
+        <v>44.306031794192</v>
       </c>
       <c r="E177" s="14" t="n">
         <v>0</v>
@@ -72240,9 +72228,8 @@
       <c r="A178" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B178" s="14" t="n">
-        <f aca="false">100-C178-D178</f>
-        <v>58.2221522713493</v>
+      <c r="B178" s="5" t="n">
+        <v>58.2221522713492</v>
       </c>
       <c r="C178" s="14" t="n">
         <v>6.10423577207711</v>
@@ -72267,8 +72254,7 @@
       <c r="A179" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B179" s="14" t="n">
-        <f aca="false">100-C179-D179</f>
+      <c r="B179" s="5" t="n">
         <v>57.8730320876436</v>
       </c>
       <c r="C179" s="14" t="n">
@@ -72294,8 +72280,7 @@
       <c r="A180" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B180" s="14" t="n">
-        <f aca="false">100-C180-D180</f>
+      <c r="B180" s="5" t="n">
         <v>58.6112473839572</v>
       </c>
       <c r="C180" s="14" t="n">
@@ -72321,8 +72306,7 @@
       <c r="A181" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B181" s="14" t="n">
-        <f aca="false">100-C181-D181</f>
+      <c r="B181" s="5" t="n">
         <v>57.1990820101673</v>
       </c>
       <c r="C181" s="14" t="n">
@@ -72348,8 +72332,7 @@
       <c r="A182" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B182" s="14" t="n">
-        <f aca="false">100-C182-D182</f>
+      <c r="B182" s="5" t="n">
         <v>57.7791097586646</v>
       </c>
       <c r="C182" s="14" t="n">
@@ -72375,8 +72358,7 @@
       <c r="A183" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B183" s="14" t="n">
-        <f aca="false">100-C183-D183</f>
+      <c r="B183" s="5" t="n">
         <v>63.5978989769</v>
       </c>
       <c r="C183" s="14" t="n">
@@ -72402,8 +72384,7 @@
       <c r="A184" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="14" t="n">
-        <f aca="false">100-C184-D184</f>
+      <c r="B184" s="5" t="n">
         <v>62.58864600015</v>
       </c>
       <c r="C184" s="14" t="n">
@@ -72429,8 +72410,7 @@
       <c r="A185" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B185" s="14" t="n">
-        <f aca="false">100-C185-D185</f>
+      <c r="B185" s="5" t="n">
         <v>62.1722776240317</v>
       </c>
       <c r="C185" s="14" t="n">
@@ -72456,8 +72436,7 @@
       <c r="A186" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B186" s="14" t="n">
-        <f aca="false">100-C186-D186</f>
+      <c r="B186" s="5" t="n">
         <v>61.7766318859742</v>
       </c>
       <c r="C186" s="14" t="n">
@@ -72483,8 +72462,7 @@
       <c r="A187" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B187" s="14" t="n">
-        <f aca="false">100-C187-D187</f>
+      <c r="B187" s="5" t="n">
         <v>63.9774744214685</v>
       </c>
       <c r="C187" s="14" t="n">
@@ -72510,8 +72488,7 @@
       <c r="A188" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B188" s="14" t="n">
-        <f aca="false">100-C188-D188</f>
+      <c r="B188" s="5" t="n">
         <v>63.3064519834963</v>
       </c>
       <c r="C188" s="14" t="n">
@@ -72537,8 +72514,7 @@
       <c r="A189" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B189" s="14" t="n">
-        <f aca="false">100-C189-D189</f>
+      <c r="B189" s="5" t="n">
         <v>65.7427340821742</v>
       </c>
       <c r="C189" s="14" t="n">
@@ -72564,8 +72540,7 @@
       <c r="A190" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B190" s="14" t="n">
-        <f aca="false">100-C190-D190</f>
+      <c r="B190" s="5" t="n">
         <v>68.4205607666823</v>
       </c>
       <c r="C190" s="14" t="n">
@@ -72591,8 +72566,7 @@
       <c r="A191" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B191" s="14" t="n">
-        <f aca="false">100-C191-D191</f>
+      <c r="B191" s="5" t="n">
         <v>67.6303285723881</v>
       </c>
       <c r="C191" s="14" t="n">
@@ -72618,8 +72592,7 @@
       <c r="A192" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B192" s="14" t="n">
-        <f aca="false">100-C192-D192</f>
+      <c r="B192" s="5" t="n">
         <v>69.0767608460237</v>
       </c>
       <c r="C192" s="14" t="n">
@@ -72645,8 +72618,7 @@
       <c r="A193" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B193" s="14" t="n">
-        <f aca="false">100-C193-D193</f>
+      <c r="B193" s="5" t="n">
         <v>67.3365841330101</v>
       </c>
       <c r="C193" s="14" t="n">
@@ -72672,8 +72644,7 @@
       <c r="A194" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B194" s="14" t="n">
-        <f aca="false">100-C194-D194</f>
+      <c r="B194" s="5" t="n">
         <v>67.236461025396</v>
       </c>
       <c r="C194" s="14" t="n">
@@ -72699,9 +72670,8 @@
       <c r="A195" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B195" s="14" t="n">
-        <f aca="false">100-C195-D195</f>
-        <v>67.5764087099867</v>
+      <c r="B195" s="5" t="n">
+        <v>67.5764087099868</v>
       </c>
       <c r="C195" s="14" t="n">
         <v>1.21816628877936</v>
@@ -72726,8 +72696,7 @@
       <c r="A196" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B196" s="14" t="n">
-        <f aca="false">100-C196-D196</f>
+      <c r="B196" s="5" t="n">
         <v>69.0707881494664</v>
       </c>
       <c r="C196" s="14" t="n">
@@ -72753,8 +72722,7 @@
       <c r="A197" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B197" s="14" t="n">
-        <f aca="false">100-C197-D197</f>
+      <c r="B197" s="5" t="n">
         <v>69.2084271715536</v>
       </c>
       <c r="C197" s="14" t="n">
@@ -72780,8 +72748,7 @@
       <c r="A198" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B198" s="14" t="n">
-        <f aca="false">100-C198-D198</f>
+      <c r="B198" s="5" t="n">
         <v>70.600069125291</v>
       </c>
       <c r="C198" s="14" t="n">
@@ -72807,8 +72774,7 @@
       <c r="A199" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B199" s="14" t="n">
-        <f aca="false">100-C199-D199</f>
+      <c r="B199" s="5" t="n">
         <v>71.0154500381631</v>
       </c>
       <c r="C199" s="14" t="n">
@@ -72834,8 +72800,7 @@
       <c r="A200" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B200" s="14" t="n">
-        <f aca="false">100-C200-D200</f>
+      <c r="B200" s="5" t="n">
         <v>70.9018860456718</v>
       </c>
       <c r="C200" s="14" t="n">
@@ -72861,8 +72826,7 @@
       <c r="A201" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B201" s="14" t="n">
-        <f aca="false">100-C201-D201</f>
+      <c r="B201" s="5" t="n">
         <v>71.3119017554588</v>
       </c>
       <c r="C201" s="14" t="n">
@@ -72888,8 +72852,7 @@
       <c r="A202" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B202" s="14" t="n">
-        <f aca="false">100-C202-D202</f>
+      <c r="B202" s="5" t="n">
         <v>72.291957164102</v>
       </c>
       <c r="C202" s="14" t="n">
@@ -72915,8 +72878,7 @@
       <c r="A203" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B203" s="14" t="n">
-        <f aca="false">100-C203-D203</f>
+      <c r="B203" s="5" t="n">
         <v>72.640810409275</v>
       </c>
       <c r="C203" s="14" t="n">
@@ -72942,8 +72904,7 @@
       <c r="A204" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B204" s="14" t="n">
-        <f aca="false">100-C204-D204</f>
+      <c r="B204" s="5" t="n">
         <v>72.2671487141094</v>
       </c>
       <c r="C204" s="14" t="n">
@@ -72969,8 +72930,7 @@
       <c r="A205" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B205" s="14" t="n">
-        <f aca="false">100-C205-D205</f>
+      <c r="B205" s="5" t="n">
         <v>73.3423595109387</v>
       </c>
       <c r="C205" s="14" t="n">
@@ -72996,8 +72956,7 @@
       <c r="A206" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B206" s="14" t="n">
-        <f aca="false">100-C206-D206</f>
+      <c r="B206" s="5" t="n">
         <v>74.3725179758444</v>
       </c>
       <c r="C206" s="14" t="n">
@@ -73023,15 +72982,14 @@
       <c r="A207" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B207" s="14" t="n">
-        <f aca="false">100-C207-D207</f>
+      <c r="B207" s="5" t="n">
         <v>74.0334613518314</v>
       </c>
       <c r="C207" s="14" t="n">
         <v>0.584469171060624</v>
       </c>
       <c r="D207" s="14" t="n">
-        <v>25.382069477108</v>
+        <v>25.3820694771079</v>
       </c>
       <c r="E207" s="14" t="n">
         <v>0</v>
@@ -73050,9 +73008,8 @@
       <c r="A208" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B208" s="14" t="n">
-        <f aca="false">100-C208-D208</f>
-        <v>75.7674606449692</v>
+      <c r="B208" s="5" t="n">
+        <v>75.7674606449693</v>
       </c>
       <c r="C208" s="14" t="n">
         <v>2.83701856541717</v>
@@ -73077,8 +73034,7 @@
       <c r="A209" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B209" s="14" t="n">
-        <f aca="false">100-C209-D209</f>
+      <c r="B209" s="5" t="n">
         <v>75.6153546658523</v>
       </c>
       <c r="C209" s="14" t="n">
@@ -73104,8 +73060,7 @@
       <c r="A210" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B210" s="14" t="n">
-        <f aca="false">100-C210-D210</f>
+      <c r="B210" s="5" t="n">
         <v>76.3367706380343</v>
       </c>
       <c r="C210" s="14" t="n">
@@ -73131,8 +73086,7 @@
       <c r="A211" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B211" s="14" t="n">
-        <f aca="false">100-C211-D211</f>
+      <c r="B211" s="5" t="n">
         <v>75.8392273419884</v>
       </c>
       <c r="C211" s="14" t="n">
@@ -73158,8 +73112,7 @@
       <c r="A212" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B212" s="14" t="n">
-        <f aca="false">100-C212-D212</f>
+      <c r="B212" s="5" t="n">
         <v>76.141260452542</v>
       </c>
       <c r="C212" s="14" t="n">
@@ -73185,8 +73138,7 @@
       <c r="A213" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B213" s="14" t="n">
-        <f aca="false">100-C213-D213</f>
+      <c r="B213" s="5" t="n">
         <v>77.3003396345546</v>
       </c>
       <c r="C213" s="14" t="n">
@@ -73212,8 +73164,7 @@
       <c r="A214" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B214" s="14" t="n">
-        <f aca="false">100-C214-D214</f>
+      <c r="B214" s="5" t="n">
         <v>77.480452479275</v>
       </c>
       <c r="C214" s="14" t="n">
@@ -73239,8 +73190,7 @@
       <c r="A215" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B215" s="14" t="n">
-        <f aca="false">100-C215-D215</f>
+      <c r="B215" s="5" t="n">
         <v>77.0186787060001</v>
       </c>
       <c r="C215" s="14" t="n">
@@ -73266,8 +73216,7 @@
       <c r="A216" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B216" s="14" t="n">
-        <f aca="false">100-C216-D216</f>
+      <c r="B216" s="5" t="n">
         <v>78.5226502475569</v>
       </c>
       <c r="C216" s="14" t="n">
@@ -73399,7 +73348,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="11" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B221" s="14" t="n">
         <f aca="false">100-D221</f>
@@ -73826,7 +73775,7 @@
         <v>1.483</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73853,7 +73802,7 @@
         <v>1.486</v>
       </c>
       <c r="H237" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73880,7 +73829,7 @@
         <v>1.489</v>
       </c>
       <c r="H238" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73907,7 +73856,7 @@
         <v>1.494</v>
       </c>
       <c r="H239" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73934,7 +73883,7 @@
         <v>1.479</v>
       </c>
       <c r="H240" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73961,7 +73910,7 @@
         <v>1.4851</v>
       </c>
       <c r="H241" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73988,7 +73937,7 @@
         <v>1.4898</v>
       </c>
       <c r="H242" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74015,7 +73964,7 @@
         <v>1.4912</v>
       </c>
       <c r="H243" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74042,7 +73991,7 @@
         <v>1.4925</v>
       </c>
       <c r="H244" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74069,7 +74018,7 @@
         <v>1.4965</v>
       </c>
       <c r="H245" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74096,7 +74045,7 @@
         <v>1.4993</v>
       </c>
       <c r="H246" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74123,7 +74072,7 @@
         <v>1.5015</v>
       </c>
       <c r="H247" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74150,7 +74099,7 @@
         <v>1.54014</v>
       </c>
       <c r="H248" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74177,7 +74126,7 @@
         <v>1.5021</v>
       </c>
       <c r="H249" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74204,7 +74153,7 @@
         <v>1.5042</v>
       </c>
       <c r="H250" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74231,7 +74180,7 @@
         <v>1.5055</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74258,7 +74207,7 @@
         <v>1.5055</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74285,7 +74234,7 @@
         <v>1.5075</v>
       </c>
       <c r="H253" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74312,7 +74261,7 @@
         <v>1.5076</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74339,7 +74288,7 @@
         <v>1.5099</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74366,7 +74315,7 @@
         <v>1.5112</v>
       </c>
       <c r="H256" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74393,7 +74342,7 @@
         <v>1.5137</v>
       </c>
       <c r="H257" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74420,7 +74369,7 @@
         <v>1.515</v>
       </c>
       <c r="H258" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74447,7 +74396,7 @@
         <v>1.5146</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74474,7 +74423,7 @@
         <v>1.5163</v>
       </c>
       <c r="H260" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74501,7 +74450,7 @@
         <v>1.4822</v>
       </c>
       <c r="H261" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74528,7 +74477,7 @@
         <v>1.4906</v>
       </c>
       <c r="H262" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74555,7 +74504,7 @@
         <v>1.4983</v>
       </c>
       <c r="H263" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74581,7 +74530,7 @@
         <v>1.5041</v>
       </c>
       <c r="H264" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74607,7 +74556,7 @@
         <v>1.5061</v>
       </c>
       <c r="H265" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74634,7 +74583,7 @@
         <v>1.482</v>
       </c>
       <c r="H266" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74661,7 +74610,7 @@
         <v>1.486</v>
       </c>
       <c r="H267" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74688,7 +74637,7 @@
         <v>1.49</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74715,7 +74664,7 @@
         <v>1.496</v>
       </c>
       <c r="H269" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74742,7 +74691,7 @@
         <v>1.5</v>
       </c>
       <c r="H270" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74769,7 +74718,7 @@
         <v>1.504</v>
       </c>
       <c r="H271" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74796,7 +74745,7 @@
         <v>1.508</v>
       </c>
       <c r="H272" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74823,7 +74772,7 @@
         <v>1.52</v>
       </c>
       <c r="H273" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74850,7 +74799,7 @@
         <v>1.469</v>
       </c>
       <c r="H274" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74877,7 +74826,7 @@
         <v>1.477</v>
       </c>
       <c r="H275" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74904,7 +74853,7 @@
         <v>1.481</v>
       </c>
       <c r="H276" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74931,7 +74880,7 @@
         <v>1.486</v>
       </c>
       <c r="H277" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74958,7 +74907,7 @@
         <v>1.495</v>
       </c>
       <c r="H278" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74985,7 +74934,7 @@
         <v>1.502</v>
       </c>
       <c r="H279" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75012,12 +74961,12 @@
         <v>1.51</v>
       </c>
       <c r="H280" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281" s="14" t="n">
         <f aca="false">100-C281</f>
@@ -75039,18 +74988,18 @@
         <v>1.478</v>
       </c>
       <c r="H281" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B282" s="14" t="n">
         <f aca="false">100-C282</f>
         <v>80</v>
       </c>
-      <c r="C282" s="22" t="n">
+      <c r="C282" s="14" t="n">
         <v>20</v>
       </c>
       <c r="D282" s="14" t="n">
@@ -75066,18 +75015,18 @@
         <v>1.504</v>
       </c>
       <c r="H282" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B283" s="14" t="n">
         <f aca="false">100-C283</f>
         <v>67</v>
       </c>
-      <c r="C283" s="22" t="n">
+      <c r="C283" s="14" t="n">
         <v>33</v>
       </c>
       <c r="D283" s="14" t="n">
@@ -75093,12 +75042,12 @@
         <v>1.535</v>
       </c>
       <c r="H283" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B284" s="14" t="n">
         <f aca="false">100-C284</f>
@@ -75120,12 +75069,12 @@
         <v>1.574</v>
       </c>
       <c r="H284" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B285" s="14" t="n">
         <f aca="false">100-C285</f>
@@ -75147,12 +75096,12 @@
         <v>1.597</v>
       </c>
       <c r="H285" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B286" s="14" t="n">
         <f aca="false">100-C286</f>
@@ -75174,12 +75123,12 @@
         <v>1.629</v>
       </c>
       <c r="H286" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B287" s="14" t="n">
         <f aca="false">100-C287</f>
@@ -75201,12 +75150,12 @@
         <v>1.634</v>
       </c>
       <c r="H287" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B288" s="14" t="n">
         <f aca="false">100-C288</f>
@@ -75228,12 +75177,12 @@
         <v>1.72</v>
       </c>
       <c r="H288" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B289" s="14" t="n">
         <f aca="false">100-C289</f>
@@ -75255,7 +75204,7 @@
         <v>1.728</v>
       </c>
       <c r="H289" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75282,7 +75231,7 @@
         <v>1.499</v>
       </c>
       <c r="H290" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75309,7 +75258,7 @@
         <v>1.499</v>
       </c>
       <c r="H291" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75336,7 +75285,7 @@
         <v>1.5</v>
       </c>
       <c r="H292" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75363,7 +75312,7 @@
         <v>1.5</v>
       </c>
       <c r="H293" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75390,7 +75339,7 @@
         <v>1.5</v>
       </c>
       <c r="H294" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75417,7 +75366,7 @@
         <v>1.501</v>
       </c>
       <c r="H295" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75444,7 +75393,7 @@
         <v>1.501</v>
       </c>
       <c r="H296" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75471,7 +75420,7 @@
         <v>1.499</v>
       </c>
       <c r="H297" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75498,7 +75447,7 @@
         <v>1.499</v>
       </c>
       <c r="H298" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75525,7 +75474,7 @@
         <v>1.498</v>
       </c>
       <c r="H299" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75552,7 +75501,7 @@
         <v>1.498</v>
       </c>
       <c r="H300" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75579,7 +75528,7 @@
         <v>1.498</v>
       </c>
       <c r="H301" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75606,7 +75555,7 @@
         <v>1.4989</v>
       </c>
       <c r="H302" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75633,7 +75582,7 @@
         <v>1.499</v>
       </c>
       <c r="H303" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75660,7 +75609,7 @@
         <v>1.499</v>
       </c>
       <c r="H304" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75687,7 +75636,7 @@
         <v>1.498</v>
       </c>
       <c r="H305" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75714,7 +75663,7 @@
         <v>1.4985</v>
       </c>
       <c r="H306" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75741,7 +75690,7 @@
         <v>1.498</v>
       </c>
       <c r="H307" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75768,7 +75717,7 @@
         <v>1.4965</v>
       </c>
       <c r="H308" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75795,7 +75744,7 @@
         <v>1.4962</v>
       </c>
       <c r="H309" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75822,7 +75771,7 @@
         <v>1.497</v>
       </c>
       <c r="H310" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75849,7 +75798,7 @@
         <v>1.4959</v>
       </c>
       <c r="H311" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75876,7 +75825,7 @@
         <v>1.4944</v>
       </c>
       <c r="H312" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75903,7 +75852,7 @@
         <v>1.4958</v>
       </c>
       <c r="H313" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75930,7 +75879,7 @@
         <v>1.4964</v>
       </c>
       <c r="H314" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75957,7 +75906,7 @@
         <v>1.4961</v>
       </c>
       <c r="H315" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75984,7 +75933,7 @@
         <v>1.4946</v>
       </c>
       <c r="H316" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76011,7 +75960,7 @@
         <v>1.4937</v>
       </c>
       <c r="H317" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76038,7 +75987,7 @@
         <v>1.4929</v>
       </c>
       <c r="H318" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76065,7 +76014,7 @@
         <v>1.4946</v>
       </c>
       <c r="H319" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76092,7 +76041,7 @@
         <v>1.4938</v>
       </c>
       <c r="H320" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76119,7 +76068,7 @@
         <v>1.4936</v>
       </c>
       <c r="H321" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76146,7 +76095,7 @@
         <v>1.4922</v>
       </c>
       <c r="H322" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76173,7 +76122,7 @@
         <v>1.4927</v>
       </c>
       <c r="H323" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76200,7 +76149,7 @@
         <v>1.4923</v>
       </c>
       <c r="H324" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76227,7 +76176,7 @@
         <v>1.4912</v>
       </c>
       <c r="H325" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76254,7 +76203,7 @@
         <v>1.4902</v>
       </c>
       <c r="H326" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76281,7 +76230,7 @@
         <v>1.4911</v>
       </c>
       <c r="H327" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76308,7 +76257,7 @@
         <v>1.491</v>
       </c>
       <c r="H328" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76335,7 +76284,7 @@
         <v>1.4895</v>
       </c>
       <c r="H329" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76362,7 +76311,7 @@
         <v>1.4883</v>
       </c>
       <c r="H330" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76389,7 +76338,7 @@
         <v>1.4902</v>
       </c>
       <c r="H331" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76416,7 +76365,7 @@
         <v>1.4891</v>
       </c>
       <c r="H332" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76443,7 +76392,7 @@
         <v>1.4878</v>
       </c>
       <c r="H333" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76470,7 +76419,7 @@
         <v>1.4864</v>
       </c>
       <c r="H334" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76497,7 +76446,7 @@
         <v>1.4881</v>
       </c>
       <c r="H335" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76524,7 +76473,7 @@
         <v>1.4875</v>
       </c>
       <c r="H336" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76551,7 +76500,7 @@
         <v>1.486</v>
       </c>
       <c r="H337" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76578,7 +76527,7 @@
         <v>1.487</v>
       </c>
       <c r="H338" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76605,7 +76554,7 @@
         <v>1.4841</v>
       </c>
       <c r="H339" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76632,7 +76581,7 @@
         <v>1.4848</v>
       </c>
       <c r="H340" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76659,7 +76608,7 @@
         <v>1.4813</v>
       </c>
       <c r="H341" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -76688,57 +76637,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="25" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="24" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="26" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>289</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>514.532</v>
@@ -76767,16 +76716,16 @@
       <c r="K2" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>291</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>514.532</v>
@@ -76805,16 +76754,16 @@
       <c r="K3" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>292</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>293</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>514.532</v>
@@ -76843,16 +76792,16 @@
       <c r="K4" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>295</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>514.532</v>
@@ -76881,15 +76830,15 @@
       <c r="K5" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="12" t="n">
@@ -76919,15 +76868,15 @@
       <c r="K6" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>234</v>
       </c>
       <c r="C7" s="12" t="n">
@@ -76957,16 +76906,16 @@
       <c r="K7" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>298</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>299</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>514.532</v>
@@ -76995,16 +76944,16 @@
       <c r="K8" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>514.532</v>
@@ -77033,16 +76982,16 @@
       <c r="K9" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>302</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>514.532</v>
@@ -77071,16 +77020,16 @@
       <c r="K10" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>304</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>514.532</v>
@@ -77109,30 +77058,30 @@
       <c r="K11" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="28" t="n">
         <v>74.9745426640969</v>
       </c>
-      <c r="E12" s="30" t="n">
+      <c r="E12" s="29" t="n">
         <v>12.5324994764899</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="29" t="n">
         <v>12.4929578594132</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="12" t="n">
@@ -77147,16 +77096,16 @@
       <c r="K12" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>307</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>514.532</v>
@@ -77185,16 +77134,16 @@
       <c r="K13" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>309</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>514.532</v>
@@ -77223,16 +77172,16 @@
       <c r="K14" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>310</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>311</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>514.532</v>
@@ -77261,15 +77210,15 @@
       <c r="K15" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="12" t="n">
@@ -77299,15 +77248,15 @@
       <c r="K16" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>236</v>
       </c>
       <c r="C17" s="12" t="n">
@@ -77337,15 +77286,15 @@
       <c r="K17" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>237</v>
       </c>
       <c r="C18" s="12" t="n">
@@ -77375,15 +77324,15 @@
       <c r="K18" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>238</v>
       </c>
       <c r="C19" s="12" t="n">
@@ -77413,15 +77362,15 @@
       <c r="K19" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="12" t="n">
@@ -77451,15 +77400,15 @@
       <c r="K20" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>229</v>
       </c>
       <c r="C21" s="12" t="n">
@@ -77489,15 +77438,15 @@
       <c r="K21" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="12" t="n">
@@ -77527,15 +77476,15 @@
       <c r="K22" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>232</v>
       </c>
       <c r="C23" s="12" t="n">
@@ -77565,15 +77514,15 @@
       <c r="K23" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>233</v>
       </c>
       <c r="C24" s="12" t="n">
@@ -77603,15 +77552,15 @@
       <c r="K24" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="12" t="n">
@@ -77641,30 +77590,30 @@
       <c r="K25" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D26" s="29" t="n">
+      <c r="D26" s="28" t="n">
         <v>75.3671748325506</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="29" t="n">
         <v>12.5101810960938</v>
       </c>
-      <c r="F26" s="30" t="n">
+      <c r="F26" s="29" t="n">
         <v>9.74972150865375</v>
       </c>
-      <c r="G26" s="30" t="n">
+      <c r="G26" s="29" t="n">
         <v>2.37292256270181</v>
       </c>
       <c r="H26" s="12" t="n">
@@ -77679,30 +77628,30 @@
       <c r="K26" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>218</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D27" s="29" t="n">
+      <c r="D27" s="28" t="n">
         <v>75.3325352579704</v>
       </c>
-      <c r="E27" s="30" t="n">
+      <c r="E27" s="29" t="n">
         <v>12.440304702182</v>
       </c>
-      <c r="F27" s="30" t="n">
+      <c r="F27" s="29" t="n">
         <v>7.43508173818021</v>
       </c>
-      <c r="G27" s="30" t="n">
+      <c r="G27" s="29" t="n">
         <v>4.79207830166733</v>
       </c>
       <c r="H27" s="12" t="n">
@@ -77717,30 +77666,30 @@
       <c r="K27" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="D28" s="28" t="n">
         <v>75.1585036363751</v>
       </c>
-      <c r="E28" s="30" t="n">
+      <c r="E28" s="29" t="n">
         <v>12.5039020562326</v>
       </c>
-      <c r="F28" s="30" t="n">
+      <c r="F28" s="29" t="n">
         <v>6.14811933249659</v>
       </c>
-      <c r="G28" s="30" t="n">
+      <c r="G28" s="29" t="n">
         <v>6.18947497489577</v>
       </c>
       <c r="H28" s="12" t="n">
@@ -77755,30 +77704,30 @@
       <c r="K28" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>220</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D29" s="29" t="n">
+      <c r="D29" s="28" t="n">
         <v>75.5348273464621</v>
       </c>
-      <c r="E29" s="30" t="n">
+      <c r="E29" s="29" t="n">
         <v>12.304676320589</v>
       </c>
-      <c r="F29" s="30" t="n">
+      <c r="F29" s="29" t="n">
         <v>5.00862797129772</v>
       </c>
-      <c r="G29" s="30" t="n">
+      <c r="G29" s="29" t="n">
         <v>7.15186836165118</v>
       </c>
       <c r="H29" s="12" t="n">
@@ -77793,30 +77742,30 @@
       <c r="K29" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D30" s="29" t="n">
+      <c r="D30" s="28" t="n">
         <v>75.1517851484335</v>
       </c>
-      <c r="E30" s="30" t="n">
+      <c r="E30" s="29" t="n">
         <v>12.4271601120841</v>
       </c>
-      <c r="F30" s="30" t="n">
+      <c r="F30" s="29" t="n">
         <v>2.65935482146804</v>
       </c>
-      <c r="G30" s="30" t="n">
+      <c r="G30" s="29" t="n">
         <v>9.76169991801431</v>
       </c>
       <c r="H30" s="12" t="n">
@@ -77831,30 +77780,30 @@
       <c r="K30" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>222</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D31" s="29" t="n">
+      <c r="D31" s="28" t="n">
         <v>75.0616299962015</v>
       </c>
-      <c r="E31" s="30" t="n">
+      <c r="E31" s="29" t="n">
         <v>12.7521452301599</v>
       </c>
-      <c r="F31" s="30" t="n">
+      <c r="F31" s="29" t="n">
         <v>0.0897952692747758</v>
       </c>
-      <c r="G31" s="30" t="n">
+      <c r="G31" s="29" t="n">
         <v>12.0964295043637</v>
       </c>
       <c r="H31" s="12" t="n">
@@ -77869,30 +77818,30 @@
       <c r="K31" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D32" s="29" t="n">
+      <c r="D32" s="28" t="n">
         <v>83.9026344786137</v>
       </c>
-      <c r="E32" s="30" t="n">
+      <c r="E32" s="29" t="n">
         <v>8.74486627266353</v>
       </c>
-      <c r="F32" s="30" t="n">
+      <c r="F32" s="29" t="n">
         <v>7.35249924872283</v>
       </c>
-      <c r="G32" s="30" t="n">
+      <c r="G32" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="12" t="n">
@@ -77907,30 +77856,30 @@
       <c r="K32" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>205</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="28" t="n">
         <v>83.4</v>
       </c>
-      <c r="E33" s="30" t="n">
+      <c r="E33" s="29" t="n">
         <v>8.33</v>
       </c>
-      <c r="F33" s="30" t="n">
+      <c r="F33" s="29" t="n">
         <v>6.21</v>
       </c>
-      <c r="G33" s="30" t="n">
+      <c r="G33" s="29" t="n">
         <v>2.06</v>
       </c>
       <c r="H33" s="12" t="n">
@@ -77945,30 +77894,30 @@
       <c r="K33" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>206</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D34" s="29" t="n">
+      <c r="D34" s="28" t="n">
         <v>83.23</v>
       </c>
-      <c r="E34" s="30" t="n">
+      <c r="E34" s="29" t="n">
         <v>8.42</v>
       </c>
-      <c r="F34" s="30" t="n">
+      <c r="F34" s="29" t="n">
         <v>4.21</v>
       </c>
-      <c r="G34" s="30" t="n">
+      <c r="G34" s="29" t="n">
         <v>4.14</v>
       </c>
       <c r="H34" s="12" t="n">
@@ -77983,30 +77932,30 @@
       <c r="K34" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>207</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D35" s="29" t="n">
+      <c r="D35" s="28" t="n">
         <v>83.27</v>
       </c>
-      <c r="E35" s="30" t="n">
+      <c r="E35" s="29" t="n">
         <v>8.48</v>
       </c>
-      <c r="F35" s="30" t="n">
+      <c r="F35" s="29" t="n">
         <v>2.19</v>
       </c>
-      <c r="G35" s="30" t="n">
+      <c r="G35" s="29" t="n">
         <v>6.06</v>
       </c>
       <c r="H35" s="12" t="n">
@@ -78021,30 +77970,30 @@
       <c r="K35" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>208</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D36" s="29" t="n">
+      <c r="D36" s="28" t="n">
         <v>83.1031031031031</v>
       </c>
-      <c r="E36" s="30" t="n">
+      <c r="E36" s="29" t="n">
         <v>8.5985985985986</v>
       </c>
-      <c r="F36" s="30" t="n">
+      <c r="F36" s="29" t="n">
         <v>0.12012012012012</v>
       </c>
-      <c r="G36" s="30" t="n">
+      <c r="G36" s="29" t="n">
         <v>8.17817817817818</v>
       </c>
       <c r="H36" s="12" t="n">
@@ -78059,30 +78008,30 @@
       <c r="K36" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>333</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>334</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>514.532</v>
       </c>
-      <c r="D37" s="29" t="n">
+      <c r="D37" s="28" t="n">
         <v>90.0178159500554</v>
       </c>
-      <c r="E37" s="30" t="n">
+      <c r="E37" s="29" t="n">
         <v>5.00442961761284</v>
       </c>
-      <c r="F37" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="30" t="n">
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="29" t="n">
         <v>4.9777544323318</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -78097,15 +78046,15 @@
       <c r="K37" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="12" t="n">
@@ -78135,15 +78084,15 @@
       <c r="K38" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C39" s="12" t="n">
@@ -78173,16 +78122,16 @@
       <c r="K39" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>337</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>338</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>514.532</v>
@@ -78211,16 +78160,16 @@
       <c r="K40" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>339</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>514.532</v>
@@ -78249,16 +78198,16 @@
       <c r="K41" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>341</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>342</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>488</v>
@@ -78287,16 +78236,16 @@
       <c r="K42" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L42" s="25" t="s">
+      <c r="L42" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>343</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>344</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>488</v>
@@ -78325,16 +78274,16 @@
       <c r="K43" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>488</v>
@@ -78363,16 +78312,16 @@
       <c r="K44" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L44" s="25" t="s">
+      <c r="L44" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>347</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>488</v>
@@ -78401,16 +78350,16 @@
       <c r="K45" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>350</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>488</v>
@@ -78439,16 +78388,16 @@
       <c r="K46" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L46" s="25" t="s">
+      <c r="L46" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>351</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>352</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>488</v>
@@ -78477,16 +78426,16 @@
       <c r="K47" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L47" s="25" t="s">
+      <c r="L47" s="24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="24" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>352</v>
+      <c r="B48" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>488</v>
@@ -78515,16 +78464,16 @@
       <c r="K48" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L48" s="25" t="s">
-        <v>353</v>
+      <c r="L48" s="24" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>352</v>
+      <c r="A49" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>488</v>
@@ -78553,16 +78502,16 @@
       <c r="K49" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L49" s="25" t="s">
-        <v>353</v>
+      <c r="L49" s="24" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>352</v>
+      <c r="A50" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>488</v>
@@ -78591,16 +78540,16 @@
       <c r="K50" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L50" s="25" t="s">
-        <v>353</v>
+      <c r="L50" s="24" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>352</v>
+      <c r="A51" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>488</v>
@@ -78629,16 +78578,16 @@
       <c r="K51" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L51" s="25" t="s">
-        <v>353</v>
+      <c r="L51" s="24" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>352</v>
+      <c r="A52" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>488</v>
@@ -78667,16 +78616,16 @@
       <c r="K52" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L52" s="25" t="s">
-        <v>353</v>
+      <c r="L52" s="24" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>352</v>
+      <c r="A53" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>488</v>
@@ -78705,16 +78654,16 @@
       <c r="K53" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L53" s="25" t="s">
+      <c r="L53" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="24" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>352</v>
+      <c r="B54" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>488</v>
@@ -78743,16 +78692,16 @@
       <c r="K54" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L54" s="25" t="s">
-        <v>360</v>
+      <c r="L54" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>352</v>
+      <c r="A55" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>488</v>
@@ -78781,16 +78730,16 @@
       <c r="K55" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L55" s="25" t="s">
-        <v>360</v>
+      <c r="L55" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>352</v>
+      <c r="A56" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>488</v>
@@ -78819,16 +78768,16 @@
       <c r="K56" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L56" s="25" t="s">
-        <v>360</v>
+      <c r="L56" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>352</v>
+      <c r="A57" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>488</v>
@@ -78857,16 +78806,16 @@
       <c r="K57" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L57" s="25" t="s">
-        <v>360</v>
+      <c r="L57" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>352</v>
+      <c r="A58" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>488</v>
@@ -78895,16 +78844,16 @@
       <c r="K58" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L58" s="25" t="s">
-        <v>360</v>
+      <c r="L58" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>352</v>
+      <c r="A59" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>488</v>
@@ -78933,16 +78882,16 @@
       <c r="K59" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L59" s="25" t="s">
-        <v>360</v>
+      <c r="L59" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>352</v>
+      <c r="A60" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>488</v>
@@ -78971,16 +78920,16 @@
       <c r="K60" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L60" s="25" t="s">
-        <v>360</v>
+      <c r="L60" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>352</v>
+      <c r="A61" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>488</v>
@@ -79009,16 +78958,16 @@
       <c r="K61" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L61" s="25" t="s">
-        <v>360</v>
+      <c r="L61" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>352</v>
+      <c r="A62" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>488</v>
@@ -79047,15 +78996,15 @@
       <c r="K62" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L62" s="25" t="s">
-        <v>360</v>
+      <c r="L62" s="24" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B63" s="25" t="s">
+      <c r="A63" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="12" t="n">
@@ -79085,8 +79034,8 @@
       <c r="K63" s="12" t="n">
         <v>1400</v>
       </c>
-      <c r="L63" s="25" t="s">
-        <v>371</v>
+      <c r="L63" s="24" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -79108,53 +79057,54 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79162,55 +79112,55 @@
         <v>169</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>382</v>
+      <c r="B9" s="31" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79218,15 +79168,15 @@
         <v>268</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>389</v>
+      <c r="B15" s="31" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79234,7 +79184,7 @@
         <v>161</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79242,7 +79192,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79250,7 +79200,7 @@
         <v>266</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79258,79 +79208,79 @@
         <v>103</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>395</v>
+      <c r="B21" s="31" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>398</v>
+      <c r="B23" s="31" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>399</v>
+      <c r="B24" s="31" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>400</v>
+      <c r="B25" s="31" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>401</v>
+      <c r="B26" s="31" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79338,7 +79288,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79346,23 +79296,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>408</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79370,31 +79320,31 @@
         <v>265</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>415</v>
+      <c r="B36" s="31" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79402,7 +79352,7 @@
         <v>187</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79410,31 +79360,31 @@
         <v>267</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>418</v>
+      <c r="B39" s="31" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79442,31 +79392,31 @@
         <v>124</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>424</v>
+      <c r="B46" s="32" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79474,7 +79424,7 @@
         <v>263</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79482,17 +79432,17 @@
         <v>264</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -79529,13 +79479,13 @@
         <v>6</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79572,7 +79522,7 @@
       <c r="K35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L35" s="34" t="n">
+      <c r="L35" s="33" t="n">
         <v>1671.43529428606</v>
       </c>
       <c r="M35" s="9" t="n">
@@ -79582,7 +79532,7 @@
         <v>103</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q35" s="6" t="n">
         <v>75</v>
@@ -79655,7 +79605,7 @@
       <c r="K36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L36" s="34" t="n">
+      <c r="L36" s="33" t="n">
         <v>1571.63023196731</v>
       </c>
       <c r="M36" s="9" t="n">
@@ -79665,7 +79615,7 @@
         <v>103</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q36" s="6" t="n">
         <v>75</v>
@@ -79738,7 +79688,7 @@
       <c r="K37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L37" s="34" t="n">
+      <c r="L37" s="33" t="n">
         <v>1472.57040072013</v>
       </c>
       <c r="M37" s="9" t="n">
@@ -79748,7 +79698,7 @@
         <v>103</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q37" s="6" t="n">
         <v>75</v>
@@ -79821,7 +79771,7 @@
       <c r="K38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="34" t="n">
+      <c r="L38" s="33" t="n">
         <v>1374.26861868423</v>
       </c>
       <c r="M38" s="9" t="n">
@@ -79831,7 +79781,7 @@
         <v>103</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q38" s="6" t="n">
         <v>75</v>
@@ -79904,7 +79854,7 @@
       <c r="K39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L39" s="34" t="n">
+      <c r="L39" s="33" t="n">
         <v>1274.84417585507</v>
       </c>
       <c r="M39" s="9" t="n">
@@ -79914,7 +79864,7 @@
         <v>103</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q39" s="6" t="n">
         <v>75</v>
@@ -79955,7 +79905,7 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.75</v>
@@ -79987,7 +79937,7 @@
       <c r="K40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L40" s="34" t="n">
+      <c r="L40" s="33" t="n">
         <v>1673.93334014304</v>
       </c>
       <c r="M40" s="9" t="n">
@@ -79997,7 +79947,7 @@
         <v>103</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q40" s="6" t="n">
         <v>75</v>
@@ -80038,7 +79988,7 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.75</v>
@@ -80070,7 +80020,7 @@
       <c r="K41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="34" t="n">
+      <c r="L41" s="33" t="n">
         <v>1572.61981524537</v>
       </c>
       <c r="M41" s="9" t="n">
@@ -80080,7 +80030,7 @@
         <v>103</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q41" s="6" t="n">
         <v>75</v>
@@ -80121,7 +80071,7 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.75</v>
@@ -80153,7 +80103,7 @@
       <c r="K42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="34" t="n">
+      <c r="L42" s="33" t="n">
         <v>1472.36614172608</v>
       </c>
       <c r="M42" s="9" t="n">
@@ -80163,7 +80113,7 @@
         <v>103</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q42" s="6" t="n">
         <v>75</v>
@@ -80204,7 +80154,7 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.75</v>
@@ -80236,7 +80186,7 @@
       <c r="K43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L43" s="34" t="n">
+      <c r="L43" s="33" t="n">
         <v>1374.04625068217</v>
       </c>
       <c r="M43" s="9" t="n">
@@ -80246,7 +80196,7 @@
         <v>103</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q43" s="6" t="n">
         <v>75</v>
@@ -80287,7 +80237,7 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.75</v>
@@ -80319,7 +80269,7 @@
       <c r="K44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L44" s="34" t="n">
+      <c r="L44" s="33" t="n">
         <v>1275.38376886076</v>
       </c>
       <c r="M44" s="9" t="n">
@@ -80329,7 +80279,7 @@
         <v>103</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>75</v>
@@ -80563,10 +80513,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>435.8</v>
@@ -80683,7 +80633,7 @@
         <v>19</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>15</v>
@@ -80701,15 +80651,15 @@
         <v>15</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="O64" s="35" t="n">
+        <v>436</v>
+      </c>
+      <c r="O64" s="34" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -80725,15 +80675,15 @@
         <v>15</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>20</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="O65" s="35" t="n">
+        <v>438</v>
+      </c>
+      <c r="O65" s="34" t="n">
         <v>0.198</v>
       </c>
     </row>
@@ -80749,20 +80699,20 @@
         <v>6</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="O66" s="35" t="n">
+        <v>439</v>
+      </c>
+      <c r="O66" s="34" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I67" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="N67" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="N67" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="O67" s="35" t="n">
+      <c r="O67" s="34" t="n">
         <v>0.006</v>
       </c>
       <c r="Q67" s="0" t="n">
@@ -80807,9 +80757,9 @@
         <v>0.181940721899832</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="O68" s="35" t="n">
+        <v>442</v>
+      </c>
+      <c r="O68" s="34" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -80841,9 +80791,9 @@
         <v>0.180401166165974</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="O69" s="35" t="n">
+        <v>443</v>
+      </c>
+      <c r="O69" s="34" t="n">
         <v>100</v>
       </c>
       <c r="Q69" s="0" t="n">
